--- a/actual.xlsx
+++ b/actual.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>Адрес</t>
   </si>
@@ -74,12 +74,115 @@
   </si>
   <si>
     <t>ДАТА</t>
+  </si>
+  <si>
+    <t>19.07.2021</t>
+  </si>
+  <si>
+    <t>xJIoIIyLLIka null</t>
+  </si>
+  <si>
+    <t>ул. Заревый пр. 10</t>
+  </si>
+  <si>
+    <t>Георгий Гусев</t>
+  </si>
+  <si>
+    <t>Адрес  Студёный прд, д 24</t>
+  </si>
+  <si>
+    <t>И. Ефимов</t>
+  </si>
+  <si>
+    <t>Адрес бр Маршала Рокоссовского 11</t>
+  </si>
+  <si>
+    <t>Адрес бр Маршала Рокоссовского 9</t>
+  </si>
+  <si>
+    <t>Вадим Морозов</t>
+  </si>
+  <si>
+    <t>Менжинского 28 Корп. 3</t>
+  </si>
+  <si>
+    <t>Менжинского 28 Корп. 4</t>
+  </si>
+  <si>
+    <t>Евгений Галин</t>
+  </si>
+  <si>
+    <t>Лётчика Бабушкина 37к2</t>
+  </si>
+  <si>
+    <t>Заповедная 6</t>
+  </si>
+  <si>
+    <t>Евгений Ермолаев</t>
+  </si>
+  <si>
+    <t>ул Амундсена д8</t>
+  </si>
+  <si>
+    <t>ул Амундсена д6 стр2</t>
+  </si>
+  <si>
+    <t>Александр null</t>
+  </si>
+  <si>
+    <t>ул Амундсена д12</t>
+  </si>
+  <si>
+    <t>пр_д Заревый д10</t>
+  </si>
+  <si>
+    <t>ул Летчика Бабушкина д 33к1</t>
+  </si>
+  <si>
+    <t>Андрей Корнеев</t>
+  </si>
+  <si>
+    <t>– Осташковский проезд 8</t>
+  </si>
+  <si>
+    <t>– Осташковский проезд 4</t>
+  </si>
+  <si>
+    <t>– Стартовая 25</t>
+  </si>
+  <si>
+    <t>– Тайнинская 16к2</t>
+  </si>
+  <si>
+    <t>– Тайнинская 24</t>
+  </si>
+  <si>
+    <t>– Коминтерна 33к2</t>
+  </si>
+  <si>
+    <t>– Стартовая 27к2</t>
+  </si>
+  <si>
+    <t>– Стартовая 35</t>
+  </si>
+  <si>
+    <t>– Оборонная 6</t>
+  </si>
+  <si>
+    <t>– Норильская 6</t>
+  </si>
+  <si>
+    <t>Лазоревый пр 2</t>
+  </si>
+  <si>
+    <t>[ERROR]id=266119069</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,19 +210,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -136,10 +239,10 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -174,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,7 +400,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -306,13 +409,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -322,7 +425,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -331,7 +434,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -340,7 +443,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -350,12 +453,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -386,7 +489,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -405,7 +508,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -417,8 +520,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -426,25 +529,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" customWidth="1"/>
-    <col min="12" max="12" width="34.5703125" customWidth="1"/>
-    <col min="13" max="13" width="38.7109375" customWidth="1"/>
-    <col min="14" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="14" max="15" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -509,7 +612,1100 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>ДАТА</t>
   </si>
@@ -88,6 +88,141 @@
   </si>
   <si>
     <t>1748</t>
+  </si>
+  <si>
+    <t>Андрей Клевцов</t>
+  </si>
+  <si>
+    <t>Лазоревый 2</t>
+  </si>
+  <si>
+    <t>1751</t>
+  </si>
+  <si>
+    <t>Лазоревый 26</t>
+  </si>
+  <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>Георгий Гусев</t>
+  </si>
+  <si>
+    <t>Адрес  Студёный прд, д 24</t>
+  </si>
+  <si>
+    <t>1753</t>
+  </si>
+  <si>
+    <t>Евгений Галин</t>
+  </si>
+  <si>
+    <t>Заповедная д 6</t>
+  </si>
+  <si>
+    <t>1754</t>
+  </si>
+  <si>
+    <t>Евгений Ермолаев</t>
+  </si>
+  <si>
+    <t>Заповедная д 14</t>
+  </si>
+  <si>
+    <t>1755</t>
+  </si>
+  <si>
+    <t>Менжинского д 21</t>
+  </si>
+  <si>
+    <t>1756</t>
+  </si>
+  <si>
+    <t>ул Седова д13 к2</t>
+  </si>
+  <si>
+    <t>1757</t>
+  </si>
+  <si>
+    <t>И. Ефимов</t>
+  </si>
+  <si>
+    <t>ул. Чечулина 6</t>
+  </si>
+  <si>
+    <t>1758</t>
+  </si>
+  <si>
+    <t>Владимир ?</t>
+  </si>
+  <si>
+    <t>– Оборонная 2</t>
+  </si>
+  <si>
+    <t>1779</t>
+  </si>
+  <si>
+    <t>– Минусинская14</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>– Осташковский проезд 8</t>
+  </si>
+  <si>
+    <t>1784</t>
+  </si>
+  <si>
+    <t>– Стартовая 25</t>
+  </si>
+  <si>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>– Коминтерна 12 к 2</t>
+  </si>
+  <si>
+    <t>1786</t>
+  </si>
+  <si>
+    <t>– Тайнинская 16 к 2</t>
+  </si>
+  <si>
+    <t>1787</t>
+  </si>
+  <si>
+    <t>Александр Сквиницкий</t>
+  </si>
+  <si>
+    <t>– Амундсена 13</t>
+  </si>
+  <si>
+    <t>1792</t>
+  </si>
+  <si>
+    <t>– Амундсена 16к1</t>
+  </si>
+  <si>
+    <t>1793</t>
+  </si>
+  <si>
+    <t>Николай Камакин</t>
+  </si>
+  <si>
+    <t>Чичерина 8 к.2</t>
+  </si>
+  <si>
+    <t>1827</t>
+  </si>
+  <si>
+    <t>1828</t>
+  </si>
+  <si>
+    <t>Чичерина 6</t>
+  </si>
+  <si>
+    <t>1829</t>
   </si>
 </sst>
 </file>
@@ -357,7 +492,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -497,6 +632,975 @@
         <v>24</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>ДАТА</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>1829</t>
+  </si>
+  <si>
+    <t>21.07.2021</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>Ленская 8к1</t>
+  </si>
+  <si>
+    <t>1931</t>
   </si>
 </sst>
 </file>
@@ -492,7 +504,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1601,6 +1613,108 @@
         <v>69</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
   <si>
     <t>ДАТА</t>
   </si>
@@ -235,6 +235,84 @@
   </si>
   <si>
     <t>1931</t>
+  </si>
+  <si>
+    <t>Адрес бр Маршала Рокоссовского 23</t>
+  </si>
+  <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>Адрес бр Маршала Рокоссовского 27/20</t>
+  </si>
+  <si>
+    <t>1942</t>
+  </si>
+  <si>
+    <t>1943</t>
+  </si>
+  <si>
+    <t>1944</t>
+  </si>
+  <si>
+    <t>– Амундсена 16к2</t>
+  </si>
+  <si>
+    <t>1945</t>
+  </si>
+  <si>
+    <t>– Амундсена 12</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>– Седова 17к1</t>
+  </si>
+  <si>
+    <t>1947</t>
+  </si>
+  <si>
+    <t>Владимир Алдошкин</t>
+  </si>
+  <si>
+    <t>– Анадырский проезд 57</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>– Стартовая 11</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>– Норильская 6</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>– Коминтерна 7</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>– Коминтерна 14 к 2</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>Заповедная 10</t>
+  </si>
+  <si>
+    <t>1954</t>
   </si>
 </sst>
 </file>
@@ -504,7 +582,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1715,6 +1793,720 @@
         <v>73</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
   <si>
     <t>ДАТА</t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>1954</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>Нансена 6 корпус 2</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>1957</t>
   </si>
 </sst>
 </file>
@@ -582,7 +594,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2507,6 +2519,159 @@
         <v>99</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="107">
   <si>
     <t>ДАТА</t>
   </si>
@@ -325,6 +325,15 @@
   </si>
   <si>
     <t>1957</t>
+  </si>
+  <si>
+    <t>Артур Абрамян</t>
+  </si>
+  <si>
+    <t>ул. Чичерина, д. 8 к. 2</t>
+  </si>
+  <si>
+    <t>2003</t>
   </si>
 </sst>
 </file>
@@ -594,7 +603,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2672,6 +2681,57 @@
         <v>103</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
   <si>
     <t>ДАТА</t>
   </si>
@@ -334,6 +334,18 @@
   </si>
   <si>
     <t>2003</t>
+  </si>
+  <si>
+    <t>ул. Чичерина, д. 2/9</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>Чичерина 2/9</t>
+  </si>
+  <si>
+    <t>2005</t>
   </si>
 </sst>
 </file>
@@ -603,7 +615,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2732,6 +2744,108 @@
         <v>106</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="115">
   <si>
     <t>ДАТА</t>
   </si>
@@ -346,6 +346,18 @@
   </si>
   <si>
     <t>2005</t>
+  </si>
+  <si>
+    <t>22.07.2021</t>
+  </si>
+  <si>
+    <t>Вадим Морозов</t>
+  </si>
+  <si>
+    <t>Менжинского 38 Корп. 1</t>
+  </si>
+  <si>
+    <t>2082</t>
   </si>
 </sst>
 </file>
@@ -615,7 +627,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2846,6 +2858,57 @@
         <v>110</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="139">
   <si>
     <t>ДАТА</t>
   </si>
@@ -358,6 +358,78 @@
   </si>
   <si>
     <t>2082</t>
+  </si>
+  <si>
+    <t>Лётчика Бабушкина 29к4</t>
+  </si>
+  <si>
+    <t>2148</t>
+  </si>
+  <si>
+    <t>Лётчика Бабушкина 29к3</t>
+  </si>
+  <si>
+    <t>2155</t>
+  </si>
+  <si>
+    <t>Адрес бр Маршала Рокоссовского 19/16</t>
+  </si>
+  <si>
+    <t>2165</t>
+  </si>
+  <si>
+    <t>Адрес бр Маршала Рокоссовского 28/14</t>
+  </si>
+  <si>
+    <t>2166</t>
+  </si>
+  <si>
+    <t>2167</t>
+  </si>
+  <si>
+    <t>Адрес  Студёный прд, д 30</t>
+  </si>
+  <si>
+    <t>2168</t>
+  </si>
+  <si>
+    <t>Заповедная 6</t>
+  </si>
+  <si>
+    <t>2169</t>
+  </si>
+  <si>
+    <t>2170</t>
+  </si>
+  <si>
+    <t>Седова 7к1</t>
+  </si>
+  <si>
+    <t>2177</t>
+  </si>
+  <si>
+    <t>Седова 17к1</t>
+  </si>
+  <si>
+    <t>2178</t>
+  </si>
+  <si>
+    <t>2179</t>
+  </si>
+  <si>
+    <t>– Осташковский проезд 4</t>
+  </si>
+  <si>
+    <t>2180</t>
+  </si>
+  <si>
+    <t>2181</t>
+  </si>
+  <si>
+    <t>2182</t>
+  </si>
+  <si>
+    <t>2183</t>
   </si>
 </sst>
 </file>
@@ -627,7 +699,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2909,6 +2981,771 @@
         <v>114</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>ДАТА</t>
   </si>
@@ -97,6 +97,114 @@
   </si>
   <si>
     <t>291</t>
+  </si>
+  <si>
+    <t>26.07.2021</t>
+  </si>
+  <si>
+    <t>-б-р Маршала Рокоссовского 19/16</t>
+  </si>
+  <si>
+    <t>2326</t>
+  </si>
+  <si>
+    <t>- ул. 4я Гражданская 34к.2</t>
+  </si>
+  <si>
+    <t>2327</t>
+  </si>
+  <si>
+    <t>- ул. 4я Гражданская 34к.3</t>
+  </si>
+  <si>
+    <t>2328</t>
+  </si>
+  <si>
+    <t>- ул. 4я Гражданская 32</t>
+  </si>
+  <si>
+    <t>2329</t>
+  </si>
+  <si>
+    <t>Владимир Алдошкин</t>
+  </si>
+  <si>
+    <t>– Норильская 6</t>
+  </si>
+  <si>
+    <t>2330</t>
+  </si>
+  <si>
+    <t>Александр Сквиницкий</t>
+  </si>
+  <si>
+    <t>Седова 17к1</t>
+  </si>
+  <si>
+    <t>2331</t>
+  </si>
+  <si>
+    <t>2332</t>
+  </si>
+  <si>
+    <t>Седова 7к1</t>
+  </si>
+  <si>
+    <t>2333</t>
+  </si>
+  <si>
+    <t>Амундсена 12</t>
+  </si>
+  <si>
+    <t>2334</t>
+  </si>
+  <si>
+    <t>Летчика Бабушкина 33 к1</t>
+  </si>
+  <si>
+    <t>2335</t>
+  </si>
+  <si>
+    <t>Серебрякова 5</t>
+  </si>
+  <si>
+    <t>2336</t>
+  </si>
+  <si>
+    <t>Вадим Морозов</t>
+  </si>
+  <si>
+    <t>- Менжинского 38 Корп. 3</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>- Менжинского 20  Корп.1</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>Андрей Кулаков</t>
+  </si>
+  <si>
+    <t>Лётчика Бабушкина 29к3</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>Лётчика Бабушкина 39к3</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>Лётчика Бабушкина 29к1</t>
+  </si>
+  <si>
+    <t>296</t>
   </si>
 </sst>
 </file>
@@ -366,7 +474,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -557,6 +665,822 @@
         <v>27</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
   <si>
     <t>ДАТА</t>
   </si>
@@ -205,6 +205,102 @@
   </si>
   <si>
     <t>296</t>
+  </si>
+  <si>
+    <t>Николай Камакин</t>
+  </si>
+  <si>
+    <t>- Чукотский пр. 2</t>
+  </si>
+  <si>
+    <t>2384</t>
+  </si>
+  <si>
+    <t>Артур Абрамян</t>
+  </si>
+  <si>
+    <t>- ул. Чичерина, д. 2/9</t>
+  </si>
+  <si>
+    <t>2391</t>
+  </si>
+  <si>
+    <t>2392</t>
+  </si>
+  <si>
+    <t>27.07.2021</t>
+  </si>
+  <si>
+    <t>Андрей Клевцов</t>
+  </si>
+  <si>
+    <t>Лётчика Бабушкина 24</t>
+  </si>
+  <si>
+    <t>2422</t>
+  </si>
+  <si>
+    <t>Измайловский проспект 83</t>
+  </si>
+  <si>
+    <t>2435</t>
+  </si>
+  <si>
+    <t>Евгений Галин</t>
+  </si>
+  <si>
+    <t>Заповедная 14к1</t>
+  </si>
+  <si>
+    <t>2442</t>
+  </si>
+  <si>
+    <t>2443</t>
+  </si>
+  <si>
+    <t>- ул. 4я Гражданская 34к.1</t>
+  </si>
+  <si>
+    <t>2444</t>
+  </si>
+  <si>
+    <t>2451</t>
+  </si>
+  <si>
+    <t>- Менжинского 28  Корп.4</t>
+  </si>
+  <si>
+    <t>2452</t>
+  </si>
+  <si>
+    <t>- Бойцовая 14  Корп.7</t>
+  </si>
+  <si>
+    <t>2453</t>
+  </si>
+  <si>
+    <t>2454</t>
+  </si>
+  <si>
+    <t>Печорская 9</t>
+  </si>
+  <si>
+    <t>2455</t>
+  </si>
+  <si>
+    <t>Искры 19</t>
+  </si>
+  <si>
+    <t>2456</t>
+  </si>
+  <si>
+    <t>Александр ?</t>
+  </si>
+  <si>
+    <t>- бойцовая 18к.2</t>
+  </si>
+  <si>
+    <t>302</t>
   </si>
 </sst>
 </file>
@@ -474,7 +570,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1481,6 +1577,771 @@
         <v>63</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
   <si>
     <t>ДАТА</t>
   </si>
@@ -301,6 +301,123 @@
   </si>
   <si>
     <t>302</t>
+  </si>
+  <si>
+    <t>Денис Клевцов</t>
+  </si>
+  <si>
+    <t>- Седова 3</t>
+  </si>
+  <si>
+    <t>2493</t>
+  </si>
+  <si>
+    <t>- Нансена 6 корпус 2</t>
+  </si>
+  <si>
+    <t>2494</t>
+  </si>
+  <si>
+    <t>- Ясный пр. 5</t>
+  </si>
+  <si>
+    <t>2495</t>
+  </si>
+  <si>
+    <t>– Анадырский проезд 5 к2</t>
+  </si>
+  <si>
+    <t>28.07.2021</t>
+  </si>
+  <si>
+    <t>2528</t>
+  </si>
+  <si>
+    <t>Измайловский бульвар 72</t>
+  </si>
+  <si>
+    <t>2535</t>
+  </si>
+  <si>
+    <t>2536</t>
+  </si>
+  <si>
+    <t>- ул. 3я Гражданская 3</t>
+  </si>
+  <si>
+    <t>2537</t>
+  </si>
+  <si>
+    <t>2538</t>
+  </si>
+  <si>
+    <t>- Студёный пр-д, д 32,к1</t>
+  </si>
+  <si>
+    <t>2545</t>
+  </si>
+  <si>
+    <t>2546</t>
+  </si>
+  <si>
+    <t>- Бойцовая 21 Корп.1</t>
+  </si>
+  <si>
+    <t>2547</t>
+  </si>
+  <si>
+    <t>29.07.2021</t>
+  </si>
+  <si>
+    <t>Александр Винник</t>
+  </si>
+  <si>
+    <t>- Глебовская  6</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>- Глебовская 4</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>– Олонцкий проезд 8</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>– Олонцкий проезд 12</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>– Амундсена 16 к2</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>- Ясный пр. 11</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>- Ясный пр., д. 11</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>- Ясный пр., д. 13А</t>
+  </si>
+  <si>
+    <t>310</t>
   </si>
 </sst>
 </file>
@@ -570,7 +687,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2342,6 +2459,1053 @@
         <v>95</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="141">
   <si>
     <t>ДАТА</t>
   </si>
@@ -418,6 +418,24 @@
   </si>
   <si>
     <t>310</t>
+  </si>
+  <si>
+    <t>– Норильская 1</t>
+  </si>
+  <si>
+    <t>2623</t>
+  </si>
+  <si>
+    <t>– Норильская 8</t>
+  </si>
+  <si>
+    <t>2624</t>
+  </si>
+  <si>
+    <t>– Тайнинская 15 к 1</t>
+  </si>
+  <si>
+    <t>2625</t>
   </si>
 </sst>
 </file>
@@ -687,7 +705,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3506,6 +3524,159 @@
         <v>134</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="163">
   <si>
     <t>ДАТА</t>
   </si>
@@ -436,6 +436,72 @@
   </si>
   <si>
     <t>2625</t>
+  </si>
+  <si>
+    <t>30.07.2021</t>
+  </si>
+  <si>
+    <t>- Тенистый 12</t>
+  </si>
+  <si>
+    <t>2767</t>
+  </si>
+  <si>
+    <t>- Тенистый 14</t>
+  </si>
+  <si>
+    <t>2768</t>
+  </si>
+  <si>
+    <t>- Сиреневый бульвар 66</t>
+  </si>
+  <si>
+    <t>2786</t>
+  </si>
+  <si>
+    <t>2793</t>
+  </si>
+  <si>
+    <t>2794</t>
+  </si>
+  <si>
+    <t>- ул. Чечулина 14</t>
+  </si>
+  <si>
+    <t>2802</t>
+  </si>
+  <si>
+    <t>- ул. Чечулина 6</t>
+  </si>
+  <si>
+    <t>2803</t>
+  </si>
+  <si>
+    <t>[ERROR]id=1917107181</t>
+  </si>
+  <si>
+    <t>2812</t>
+  </si>
+  <si>
+    <t>- Игральная ул, д 1 Корп 1</t>
+  </si>
+  <si>
+    <t>2813</t>
+  </si>
+  <si>
+    <t>2817</t>
+  </si>
+  <si>
+    <t>- ул. 11я Парковая 8</t>
+  </si>
+  <si>
+    <t>2818</t>
+  </si>
+  <si>
+    <t>- ул. 11я Парковая 3к1</t>
+  </si>
+  <si>
+    <t>2819</t>
   </si>
 </sst>
 </file>
@@ -705,7 +771,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3677,6 +3743,618 @@
         <v>140</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="181">
   <si>
     <t>ДАТА</t>
   </si>
@@ -502,6 +502,60 @@
   </si>
   <si>
     <t>2819</t>
+  </si>
+  <si>
+    <t>– Оборонная 2</t>
+  </si>
+  <si>
+    <t>2833</t>
+  </si>
+  <si>
+    <t>2834</t>
+  </si>
+  <si>
+    <t>– Анадарыский проезд 15/1</t>
+  </si>
+  <si>
+    <t>2835</t>
+  </si>
+  <si>
+    <t>Евгений Ермолаев</t>
+  </si>
+  <si>
+    <t>- Средняя Первомайская 13</t>
+  </si>
+  <si>
+    <t>2836</t>
+  </si>
+  <si>
+    <t>- Уржумская ул., 3 к.1</t>
+  </si>
+  <si>
+    <t>2843</t>
+  </si>
+  <si>
+    <t>31.07.2021</t>
+  </si>
+  <si>
+    <t>Геннадий Лунин</t>
+  </si>
+  <si>
+    <t>2855</t>
+  </si>
+  <si>
+    <t>2856</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>- Средняя Первомайская 36</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
   </si>
 </sst>
 </file>
@@ -771,7 +825,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4355,6 +4409,516 @@
         <v>162</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="185">
   <si>
     <t>ДАТА</t>
   </si>
@@ -556,6 +556,18 @@
   </si>
   <si>
     <t>348</t>
+  </si>
+  <si>
+    <t>- Уржумская ул., 3 к.2</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>- Уржумская ул., 3 к.3</t>
+  </si>
+  <si>
+    <t>350</t>
   </si>
 </sst>
 </file>
@@ -825,7 +837,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4919,6 +4931,108 @@
         <v>180</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" t="s">
+        <v>67</v>
+      </c>
+      <c r="D82" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="188">
   <si>
     <t>ДАТА</t>
   </si>
@@ -568,6 +568,15 @@
   </si>
   <si>
     <t>350</t>
+  </si>
+  <si>
+    <t>02.08.2021</t>
+  </si>
+  <si>
+    <t>- Олонецкий пр.4</t>
+  </si>
+  <si>
+    <t>2947</t>
   </si>
 </sst>
 </file>
@@ -837,7 +846,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5033,6 +5042,57 @@
         <v>184</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="215">
   <si>
     <t>ДАТА</t>
   </si>
@@ -577,6 +577,87 @@
   </si>
   <si>
     <t>2947</t>
+  </si>
+  <si>
+    <t>- сиреневый бульвар 66</t>
+  </si>
+  <si>
+    <t>2954</t>
+  </si>
+  <si>
+    <t>Александр Шалимов</t>
+  </si>
+  <si>
+    <t>- Глебовская 2</t>
+  </si>
+  <si>
+    <t>2955</t>
+  </si>
+  <si>
+    <t>- Измайловский бульвар 66</t>
+  </si>
+  <si>
+    <t>2956</t>
+  </si>
+  <si>
+    <t>- Глебовская 10А</t>
+  </si>
+  <si>
+    <t>2957</t>
+  </si>
+  <si>
+    <t>2964</t>
+  </si>
+  <si>
+    <t>2965</t>
+  </si>
+  <si>
+    <t>2966</t>
+  </si>
+  <si>
+    <t>2968</t>
+  </si>
+  <si>
+    <t>- Игральная ул, д 1 Корп 2</t>
+  </si>
+  <si>
+    <t>2970</t>
+  </si>
+  <si>
+    <t>Клстия null[id=1335161870]</t>
+  </si>
+  <si>
+    <t>Ул Бойцова 10 стр 9</t>
+  </si>
+  <si>
+    <t>2971</t>
+  </si>
+  <si>
+    <t>2978</t>
+  </si>
+  <si>
+    <t>2980</t>
+  </si>
+  <si>
+    <t>- ул. 13я Парковая 16к2</t>
+  </si>
+  <si>
+    <t>2981</t>
+  </si>
+  <si>
+    <t>Николай Живицкий</t>
+  </si>
+  <si>
+    <t>- ул. Чечурино д. 14</t>
+  </si>
+  <si>
+    <t>2985</t>
+  </si>
+  <si>
+    <t>- Открытое ш. д.1к2</t>
+  </si>
+  <si>
+    <t>2986</t>
   </si>
 </sst>
 </file>
@@ -846,7 +927,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5093,6 +5174,771 @@
         <v>187</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" t="s">
+        <v>174</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" t="s">
+        <v>174</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" t="s">
+        <v>203</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" t="s">
+        <v>210</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/actual.xlsx
+++ b/actual.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="280">
   <si>
     <t>ДАТА</t>
   </si>
@@ -658,6 +658,201 @@
   </si>
   <si>
     <t>2986</t>
+  </si>
+  <si>
+    <t>05.08.2021</t>
+  </si>
+  <si>
+    <t>- Нижняя Первомайская 62 к. 1</t>
+  </si>
+  <si>
+    <t>3215</t>
+  </si>
+  <si>
+    <t>3216</t>
+  </si>
+  <si>
+    <t>- Игральная ул, д 4</t>
+  </si>
+  <si>
+    <t>3217</t>
+  </si>
+  <si>
+    <t>- Староватутинский пр. 11</t>
+  </si>
+  <si>
+    <t>3218</t>
+  </si>
+  <si>
+    <t>- Староватутинский пр. 13</t>
+  </si>
+  <si>
+    <t>3219</t>
+  </si>
+  <si>
+    <t>- Староватутинский пр. 15</t>
+  </si>
+  <si>
+    <t>3220</t>
+  </si>
+  <si>
+    <t>- Студёный пр-д, д 38,к2</t>
+  </si>
+  <si>
+    <t>3221</t>
+  </si>
+  <si>
+    <t>- 16-я Парковая 25к2</t>
+  </si>
+  <si>
+    <t>3222</t>
+  </si>
+  <si>
+    <t>- Открытое щоссе 6к.8</t>
+  </si>
+  <si>
+    <t>3223</t>
+  </si>
+  <si>
+    <t>- Нижняя Первомайская 53</t>
+  </si>
+  <si>
+    <t>3224</t>
+  </si>
+  <si>
+    <t>bax coloboc[id=1317967872]</t>
+  </si>
+  <si>
+    <t>- 16-я Парковая 16корп.4</t>
+  </si>
+  <si>
+    <t>3225</t>
+  </si>
+  <si>
+    <t>- 16-я Парковая 16корп.6</t>
+  </si>
+  <si>
+    <t>3226</t>
+  </si>
+  <si>
+    <t>3227</t>
+  </si>
+  <si>
+    <t>3228</t>
+  </si>
+  <si>
+    <t>༒༺ℛ?????????? ༻༒ null[id=357937312]</t>
+  </si>
+  <si>
+    <t>- пр. Дежнева д. 38</t>
+  </si>
+  <si>
+    <t>3229</t>
+  </si>
+  <si>
+    <t>- Чечулина 14</t>
+  </si>
+  <si>
+    <t>3230</t>
+  </si>
+  <si>
+    <t>- Бойцова 10к7</t>
+  </si>
+  <si>
+    <t>3231</t>
+  </si>
+  <si>
+    <t>- Бойцова 10к3</t>
+  </si>
+  <si>
+    <t>3232</t>
+  </si>
+  <si>
+    <t>– Открытое шоссе 6к2</t>
+  </si>
+  <si>
+    <t>3235</t>
+  </si>
+  <si>
+    <t>– Открытое шоссе 6к1</t>
+  </si>
+  <si>
+    <t>3236</t>
+  </si>
+  <si>
+    <t>- ул. Полярная 4 корп. 1</t>
+  </si>
+  <si>
+    <t>3241</t>
+  </si>
+  <si>
+    <t>- пр. Дежнева 25 корп. 2</t>
+  </si>
+  <si>
+    <t>3242</t>
+  </si>
+  <si>
+    <t>- пр. Дежнева 25 корп. 3</t>
+  </si>
+  <si>
+    <t>3243</t>
+  </si>
+  <si>
+    <t>Денис null[id=1911334743]</t>
+  </si>
+  <si>
+    <t>- Амурская д. 52</t>
+  </si>
+  <si>
+    <t>3244</t>
+  </si>
+  <si>
+    <t>- Заповедная ул. 8</t>
+  </si>
+  <si>
+    <t>3245</t>
+  </si>
+  <si>
+    <t>- Дежнева пр. 27 к.2</t>
+  </si>
+  <si>
+    <t>3246</t>
+  </si>
+  <si>
+    <t>3247</t>
+  </si>
+  <si>
+    <t>– Анадырский 47/2</t>
+  </si>
+  <si>
+    <t>3248</t>
+  </si>
+  <si>
+    <t>– Анадырский 47/3</t>
+  </si>
+  <si>
+    <t>3249</t>
+  </si>
+  <si>
+    <t>– Стартовая 7</t>
+  </si>
+  <si>
+    <t>3250</t>
+  </si>
+  <si>
+    <t>– Анадрыский проезд  49</t>
+  </si>
+  <si>
+    <t>3251</t>
+  </si>
+  <si>
+    <t>06.08.2021</t>
+  </si>
+  <si>
+    <t>- Менжинского 21</t>
+  </si>
+  <si>
+    <t>3265</t>
   </si>
 </sst>
 </file>
@@ -927,7 +1122,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5939,6 +6134,1638 @@
         <v>214</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" t="s">
+        <v>216</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>215</v>
+      </c>
+      <c r="B100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>215</v>
+      </c>
+      <c r="B102" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" t="s">
+        <v>190</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" t="s">
+        <v>190</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D106" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+      <c r="T106"/>
+      <c r="U106" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" t="s">
+        <v>168</v>
+      </c>
+      <c r="D108" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" t="s">
+        <v>236</v>
+      </c>
+      <c r="C109" t="s">
+        <v>235</v>
+      </c>
+      <c r="D109" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" t="s">
+        <v>235</v>
+      </c>
+      <c r="D110" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
+      <c r="T111"/>
+      <c r="U111" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" t="s">
+        <v>77</v>
+      </c>
+      <c r="D112" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" t="s">
+        <v>243</v>
+      </c>
+      <c r="C113" t="s">
+        <v>242</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" t="s">
+        <v>174</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>215</v>
+      </c>
+      <c r="B115" t="s">
+        <v>247</v>
+      </c>
+      <c r="C115" t="s">
+        <v>203</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>215</v>
+      </c>
+      <c r="B116" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" t="s">
+        <v>203</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>215</v>
+      </c>
+      <c r="B117" t="s">
+        <v>251</v>
+      </c>
+      <c r="C117" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>215</v>
+      </c>
+      <c r="B118" t="s">
+        <v>253</v>
+      </c>
+      <c r="C118" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+      <c r="S118"/>
+      <c r="T118"/>
+      <c r="U118" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>215</v>
+      </c>
+      <c r="B119" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" t="s">
+        <v>64</v>
+      </c>
+      <c r="D119" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119"/>
+      <c r="T119"/>
+      <c r="U119" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>215</v>
+      </c>
+      <c r="B120" t="s">
+        <v>257</v>
+      </c>
+      <c r="C120" t="s">
+        <v>64</v>
+      </c>
+      <c r="D120" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>215</v>
+      </c>
+      <c r="B121" t="s">
+        <v>259</v>
+      </c>
+      <c r="C121" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121"/>
+      <c r="S121"/>
+      <c r="T121"/>
+      <c r="U121" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>215</v>
+      </c>
+      <c r="B122" t="s">
+        <v>262</v>
+      </c>
+      <c r="C122" t="s">
+        <v>261</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122"/>
+      <c r="S122"/>
+      <c r="T122"/>
+      <c r="U122" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>215</v>
+      </c>
+      <c r="B123" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" t="s">
+        <v>67</v>
+      </c>
+      <c r="D123" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
+      <c r="R123"/>
+      <c r="S123"/>
+      <c r="T123"/>
+      <c r="U123" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>215</v>
+      </c>
+      <c r="B124" t="s">
+        <v>266</v>
+      </c>
+      <c r="C124" t="s">
+        <v>67</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124"/>
+      <c r="S124"/>
+      <c r="T124"/>
+      <c r="U124" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>215</v>
+      </c>
+      <c r="B125" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
+      <c r="R125"/>
+      <c r="S125"/>
+      <c r="T125"/>
+      <c r="U125" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>215</v>
+      </c>
+      <c r="B126" t="s">
+        <v>269</v>
+      </c>
+      <c r="C126" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+      <c r="S126"/>
+      <c r="T126"/>
+      <c r="U126" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>215</v>
+      </c>
+      <c r="B127" t="s">
+        <v>271</v>
+      </c>
+      <c r="C127" t="s">
+        <v>37</v>
+      </c>
+      <c r="D127" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127"/>
+      <c r="S127"/>
+      <c r="T127"/>
+      <c r="U127" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>215</v>
+      </c>
+      <c r="B128" t="s">
+        <v>273</v>
+      </c>
+      <c r="C128" t="s">
+        <v>37</v>
+      </c>
+      <c r="D128" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128"/>
+      <c r="S128"/>
+      <c r="T128"/>
+      <c r="U128" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>215</v>
+      </c>
+      <c r="B129" t="s">
+        <v>275</v>
+      </c>
+      <c r="C129" t="s">
+        <v>37</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+      <c r="R129"/>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>277</v>
+      </c>
+      <c r="B130" t="s">
+        <v>278</v>
+      </c>
+      <c r="C130" t="s">
+        <v>168</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130"/>
+      <c r="S130"/>
+      <c r="T130"/>
+      <c r="U130" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
